--- a/P2.xlsx
+++ b/P2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fathan\Documents\Obsidian Vault\2. Kuliah\Smt 6\2. Teknik Pembelajaran Mesin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEA1337B-17BF-4B6B-95C0-A22F0EB3191E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{40792E76-4844-4B2D-A4B5-9CE5C52C7B6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="17385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,6 +17,7 @@
     <sheet name="Kelompok" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -502,7 +503,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -539,6 +540,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFD2D0CE"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="9">
@@ -626,9 +633,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -637,6 +641,7 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -930,8 +935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="133" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView zoomScale="133" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -970,7 +975,7 @@
       <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>97</v>
       </c>
     </row>
@@ -987,7 +992,7 @@
       <c r="D3" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>99</v>
       </c>
     </row>
@@ -1004,7 +1009,7 @@
       <c r="D4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>100</v>
       </c>
     </row>
@@ -1021,7 +1026,7 @@
       <c r="D5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>102</v>
       </c>
     </row>
@@ -1038,7 +1043,7 @@
       <c r="D6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>103</v>
       </c>
     </row>
@@ -1055,7 +1060,7 @@
       <c r="D7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>104</v>
       </c>
     </row>
@@ -1072,7 +1077,7 @@
       <c r="D8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="2" t="s">
         <v>105</v>
       </c>
     </row>
@@ -1089,7 +1094,7 @@
       <c r="D9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="2" t="s">
         <v>106</v>
       </c>
     </row>
@@ -1106,7 +1111,7 @@
       <c r="D10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="2" t="s">
         <v>107</v>
       </c>
     </row>
@@ -1123,7 +1128,7 @@
       <c r="D11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="2" t="s">
         <v>108</v>
       </c>
     </row>
@@ -1140,7 +1145,7 @@
       <c r="D12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="2" t="s">
         <v>109</v>
       </c>
     </row>
@@ -1157,7 +1162,7 @@
       <c r="D13" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="2" t="s">
         <v>110</v>
       </c>
     </row>
@@ -1174,7 +1179,7 @@
       <c r="D14" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="2" t="s">
         <v>111</v>
       </c>
     </row>
@@ -1191,7 +1196,7 @@
       <c r="D15" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="2" t="s">
         <v>112</v>
       </c>
     </row>
@@ -1208,7 +1213,7 @@
       <c r="D16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="2" t="s">
         <v>114</v>
       </c>
     </row>
@@ -1225,7 +1230,7 @@
       <c r="D17" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="2" t="s">
         <v>113</v>
       </c>
     </row>
@@ -1242,7 +1247,7 @@
       <c r="D18" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="2" t="s">
         <v>115</v>
       </c>
     </row>
@@ -1259,7 +1264,7 @@
       <c r="D19" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="2" t="s">
         <v>116</v>
       </c>
     </row>
@@ -1276,7 +1281,7 @@
       <c r="D20" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="2" t="s">
         <v>117</v>
       </c>
     </row>
@@ -1293,7 +1298,7 @@
       <c r="D21" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="2" t="s">
         <v>118</v>
       </c>
     </row>
@@ -1310,7 +1315,7 @@
       <c r="D22" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="2" t="s">
         <v>119</v>
       </c>
     </row>
@@ -1327,7 +1332,7 @@
       <c r="D23" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="2" t="s">
         <v>98</v>
       </c>
     </row>
@@ -1344,7 +1349,7 @@
       <c r="D24" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="2" t="s">
         <v>120</v>
       </c>
     </row>
@@ -1361,7 +1366,7 @@
       <c r="D25" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E25" s="2" t="s">
         <v>121</v>
       </c>
     </row>
@@ -1378,7 +1383,7 @@
       <c r="D26" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E26" s="2" t="s">
         <v>101</v>
       </c>
     </row>
@@ -1395,7 +1400,7 @@
       <c r="D27" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E27" s="2" t="s">
         <v>122</v>
       </c>
     </row>
@@ -1412,7 +1417,7 @@
       <c r="D28" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E28" s="2" t="s">
         <v>123</v>
       </c>
     </row>
@@ -1429,7 +1434,7 @@
       <c r="D29" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E29" s="2" t="s">
         <v>124</v>
       </c>
     </row>
@@ -1446,7 +1451,7 @@
       <c r="D30" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="E30" s="2" t="s">
         <v>125</v>
       </c>
     </row>
@@ -1463,7 +1468,7 @@
       <c r="D31" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="E31" s="2" t="s">
         <v>126</v>
       </c>
     </row>
@@ -1480,7 +1485,7 @@
       <c r="D32" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="E32" s="2" t="s">
         <v>127</v>
       </c>
     </row>
@@ -1497,7 +1502,7 @@
       <c r="D33" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="E33" s="2" t="s">
         <v>128</v>
       </c>
     </row>
@@ -1514,7 +1519,7 @@
       <c r="D34" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="E34" s="2" t="s">
         <v>129</v>
       </c>
     </row>
@@ -1531,7 +1536,7 @@
       <c r="D35" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="E35" s="2" t="s">
         <v>130</v>
       </c>
     </row>
@@ -1548,7 +1553,7 @@
       <c r="D36" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="E36" s="2" t="s">
         <v>131</v>
       </c>
     </row>
@@ -1565,7 +1570,7 @@
       <c r="D37" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="E37" s="2" t="s">
         <v>132</v>
       </c>
     </row>
@@ -1582,7 +1587,7 @@
       <c r="D38" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="E38" s="2" t="s">
         <v>133</v>
       </c>
     </row>
@@ -1599,7 +1604,7 @@
       <c r="D39" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="E39" s="2" t="s">
         <v>134</v>
       </c>
     </row>
@@ -1616,7 +1621,7 @@
       <c r="D40" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="E40" s="2" t="s">
         <v>135</v>
       </c>
     </row>
@@ -1633,7 +1638,7 @@
       <c r="D41" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="E41" s="2" t="s">
         <v>136</v>
       </c>
     </row>
@@ -1650,7 +1655,7 @@
       <c r="D42" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="E42" s="2" t="s">
         <v>137</v>
       </c>
     </row>
@@ -1667,7 +1672,7 @@
       <c r="D43" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E43" s="3" t="s">
+      <c r="E43" s="2" t="s">
         <v>138</v>
       </c>
     </row>
@@ -1684,7 +1689,7 @@
       <c r="D44" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E44" s="3" t="s">
+      <c r="E44" s="2" t="s">
         <v>139</v>
       </c>
     </row>
@@ -1701,7 +1706,7 @@
       <c r="D45" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E45" s="3" t="s">
+      <c r="E45" s="2" t="s">
         <v>140</v>
       </c>
     </row>
@@ -1718,7 +1723,7 @@
       <c r="D46" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E46" s="3" t="s">
+      <c r="E46" s="2" t="s">
         <v>141</v>
       </c>
     </row>
@@ -1729,7 +1734,7 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D1:D1048576 E1:E46">
+  <conditionalFormatting sqref="E1:E46 D1:D1048576">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="SKIP">
       <formula>NOT(ISERROR(SEARCH("SKIP",D1)))</formula>
     </cfRule>
@@ -1740,10 +1745,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E9F598D-D521-47DE-BEB7-8D23224132C8}">
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:C45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="163" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1752,364 +1757,540 @@
     <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="C2" s="11" t="e">
+        <f>VLOOKUP(B2, 'P2'!B:E, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="C3" s="11" t="e">
+        <f>VLOOKUP(A3, 'P2'!A:E, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="C4" s="11" t="e">
+        <f>VLOOKUP(A4, 'P2'!A:E, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="C5" s="11" t="e">
+        <f>VLOOKUP(A5, 'P2'!A:E, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="C6" s="11" t="e">
+        <f>VLOOKUP(A6, 'P2'!A:E, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="C7" s="11" t="e">
+        <f>VLOOKUP(A7, 'P2'!A:E, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="C8" s="11" t="e">
+        <f>VLOOKUP(A8, 'P2'!A:E, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="C9" s="11" t="e">
+        <f>VLOOKUP(A9, 'P2'!A:E, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+      <c r="C10" s="11" t="e">
+        <f>VLOOKUP(A10, 'P2'!A:E, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+      <c r="C11" s="11" t="e">
+        <f>VLOOKUP(A11, 'P2'!A:E, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+      <c r="C12" s="11" t="e">
+        <f>VLOOKUP(A12, 'P2'!A:E, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="7" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+      <c r="C13" s="11" t="e">
+        <f>VLOOKUP(A13, 'P2'!A:E, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="7" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+      <c r="C14" s="11" t="e">
+        <f>VLOOKUP(A14, 'P2'!A:E, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
+      <c r="C15" s="11" t="e">
+        <f>VLOOKUP(A15, 'P2'!A:E, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="7" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
+      <c r="C16" s="11" t="e">
+        <f>VLOOKUP(A16, 'P2'!A:E, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="7" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
+      <c r="C17" s="11" t="e">
+        <f>VLOOKUP(A17, 'P2'!A:E, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="8" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
+      <c r="C18" s="11" t="e">
+        <f>VLOOKUP(A18, 'P2'!A:E, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="8" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
+      <c r="C19" s="11" t="e">
+        <f>VLOOKUP(A19, 'P2'!A:E, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="8" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
+      <c r="C20" s="11" t="e">
+        <f>VLOOKUP(A20, 'P2'!A:E, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="8" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
+      <c r="C21" s="11" t="e">
+        <f>VLOOKUP(A21, 'P2'!A:E, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="8" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
+      <c r="C22" s="11" t="e">
+        <f>VLOOKUP(A22, 'P2'!A:E, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="8" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
+      <c r="C23" s="11" t="e">
+        <f>VLOOKUP(A23, 'P2'!A:E, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="9" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
+      <c r="C24" s="11" t="e">
+        <f>VLOOKUP(A24, 'P2'!A:E, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="9" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
+      <c r="C25" s="11" t="e">
+        <f>VLOOKUP(A25, 'P2'!A:E, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="9" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="10" t="s">
+      <c r="C26" s="11" t="e">
+        <f>VLOOKUP(A26, 'P2'!A:E, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="9" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="10" t="s">
+      <c r="C27" s="11" t="e">
+        <f>VLOOKUP(A27, 'P2'!A:E, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="9" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="11" t="s">
+      <c r="C28" s="11" t="e">
+        <f>VLOOKUP(A28, 'P2'!A:E, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="10" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="11" t="s">
+      <c r="C29" s="11" t="e">
+        <f>VLOOKUP(A29, 'P2'!A:E, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="10" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="11" t="s">
+      <c r="C30" s="11" t="e">
+        <f>VLOOKUP(A30, 'P2'!A:E, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="10" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="11" t="s">
+      <c r="C31" s="11" t="e">
+        <f>VLOOKUP(A31, 'P2'!A:E, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="10" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="11" t="s">
+      <c r="C32" s="11" t="e">
+        <f>VLOOKUP(A32, 'P2'!A:E, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="B33" s="10" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="11" t="s">
+      <c r="C33" s="11" t="e">
+        <f>VLOOKUP(A33, 'P2'!A:E, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="B34" s="10" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
+      <c r="C34" s="11" t="e">
+        <f>VLOOKUP(A34, 'P2'!A:E, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="5" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
+      <c r="C35" s="11" t="e">
+        <f>VLOOKUP(A35, 'P2'!A:E, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="5" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
+      <c r="C36" s="11" t="e">
+        <f>VLOOKUP(A36, 'P2'!A:E, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="5" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="s">
+      <c r="C37" s="11" t="e">
+        <f>VLOOKUP(A37, 'P2'!A:E, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="5" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="6" t="s">
+      <c r="C38" s="11" t="e">
+        <f>VLOOKUP(A38, 'P2'!A:E, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="5" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="6" t="s">
+      <c r="C39" s="11" t="e">
+        <f>VLOOKUP(A39, 'P2'!A:E, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="5" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
+      <c r="C40" s="11" t="e">
+        <f>VLOOKUP(A40, 'P2'!A:E, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="3" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
+      <c r="C41" s="11" t="e">
+        <f>VLOOKUP(A41, 'P2'!A:E, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="3" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
+      <c r="C42" s="11" t="e">
+        <f>VLOOKUP(A42, 'P2'!A:E, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="3" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
+      <c r="C43" s="11" t="e">
+        <f>VLOOKUP(A43, 'P2'!A:E, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="3" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
+      <c r="C44" s="11" t="e">
+        <f>VLOOKUP(A44, 'P2'!A:E, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="3" t="s">
         <v>109</v>
+      </c>
+      <c r="C45" s="11" t="e">
+        <f>VLOOKUP(A45, 'P2'!A:E, 2, FALSE)</f>
+        <v>#N/A</v>
       </c>
     </row>
   </sheetData>

--- a/P2.xlsx
+++ b/P2.xlsx
@@ -8,16 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fathan\Documents\Obsidian Vault\2. Kuliah\Smt 6\2. Teknik Pembelajaran Mesin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{40792E76-4844-4B2D-A4B5-9CE5C52C7B6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3498749E-5B1A-4930-BEC2-B9379AEB936E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="17385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="13185" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="P2" sheetId="1" r:id="rId1"/>
-    <sheet name="Kelompok" sheetId="2" r:id="rId2"/>
+    <sheet name="Kelompok UTS" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="159">
   <si>
     <t>No</t>
   </si>
@@ -472,9 +471,6 @@
     <t>Team 1</t>
   </si>
   <si>
-    <t xml:space="preserve"> Efa </t>
-  </si>
-  <si>
     <t>Team 2</t>
   </si>
   <si>
@@ -496,21 +492,146 @@
     <t>Team 8</t>
   </si>
   <si>
-    <t xml:space="preserve"> Diba</t>
+    <t>Topik</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Topik 4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Unsupervised learning dengan kasus reduksi dimensi</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Topik 3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Unsupervised learning dengan kasus penggerombolan</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Topik 1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Supervised learning dengan peubah respon numerik</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Topik 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Supervised learning dengan peubah respon numerik</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Topik 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Supervised learning dengan peubah respon kategorik</t>
+    </r>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Metode analisis</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -542,10 +663,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFD2D0CE"/>
-      <name val="Courier New"/>
-      <family val="3"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFC000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="9">
@@ -625,23 +772,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -668,6 +823,99 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>103095</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>2130</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>128946</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C40D5FF-38D6-6B5B-78CB-C23C80F9E0B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8313645" y="0"/>
+          <a:ext cx="4166235" cy="2224446"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>142265</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>76201</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>152743</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F0538CA-EC6E-2F38-83C6-172A1F8B80F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8352815" y="2228851"/>
+          <a:ext cx="4201136" cy="1733892"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -933,16 +1181,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView zoomScale="133" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.85546875" customWidth="1"/>
-    <col min="3" max="3" width="32.28515625" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -950,16 +1201,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -967,16 +1218,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>97</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -984,16 +1235,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1001,16 +1252,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="E4" s="2" t="s">
-        <v>100</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1018,16 +1269,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="E5" s="2" t="s">
-        <v>102</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1035,16 +1286,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="E6" s="2" t="s">
-        <v>103</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1052,16 +1303,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="E7" s="2" t="s">
-        <v>104</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1069,16 +1320,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="E8" s="2" t="s">
-        <v>105</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1086,16 +1337,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="E9" s="2" t="s">
-        <v>106</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1103,16 +1354,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="E10" s="2" t="s">
-        <v>107</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1120,16 +1371,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="E11" s="2" t="s">
-        <v>108</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1137,16 +1388,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="E12" s="2" t="s">
-        <v>109</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1154,16 +1405,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="E13" s="2" t="s">
-        <v>110</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1171,16 +1422,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="E14" s="2" t="s">
-        <v>111</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1188,16 +1439,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="E15" s="2" t="s">
-        <v>112</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -1205,16 +1456,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="E16" s="2" t="s">
-        <v>114</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -1222,16 +1473,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="E17" s="2" t="s">
-        <v>113</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1239,16 +1490,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="E18" s="2" t="s">
-        <v>115</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -1256,16 +1507,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="E19" s="2" t="s">
-        <v>116</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -1273,16 +1524,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="E20" s="2" t="s">
-        <v>117</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1290,16 +1541,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="E21" s="2" t="s">
-        <v>118</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -1307,16 +1558,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="E22" s="2" t="s">
-        <v>119</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -1324,16 +1575,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="E23" s="2" t="s">
-        <v>98</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1341,16 +1592,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="D24" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="E24" s="2" t="s">
-        <v>120</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -1358,16 +1609,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="D25" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="E25" s="2" t="s">
-        <v>121</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -1375,16 +1626,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="D26" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="E26" s="2" t="s">
-        <v>101</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -1392,16 +1643,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="D27" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="E27" s="2" t="s">
-        <v>122</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -1409,16 +1660,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="D28" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="E28" s="2" t="s">
-        <v>123</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -1426,16 +1677,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="D29" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="E29" s="2" t="s">
-        <v>124</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1443,16 +1694,16 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="D30" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="E30" s="2" t="s">
-        <v>125</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1460,16 +1711,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="D31" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="E31" s="2" t="s">
-        <v>126</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1477,16 +1728,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="D32" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D32" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="E32" s="2" t="s">
-        <v>127</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1494,16 +1745,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="D33" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="E33" s="2" t="s">
-        <v>128</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -1511,16 +1762,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="D34" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D34" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="E34" s="2" t="s">
-        <v>129</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -1528,16 +1779,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="D35" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D35" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="E35" s="2" t="s">
-        <v>130</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -1545,16 +1796,16 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="D36" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D36" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="E36" s="2" t="s">
-        <v>131</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -1562,16 +1813,16 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="D37" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D37" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="E37" s="2" t="s">
-        <v>132</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -1579,16 +1830,16 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="D38" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D38" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="E38" s="2" t="s">
-        <v>133</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -1596,16 +1847,16 @@
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="D39" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D39" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="E39" s="2" t="s">
-        <v>134</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -1613,16 +1864,16 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="D40" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D40" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="E40" s="2" t="s">
-        <v>135</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -1630,16 +1881,16 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="D41" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D41" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="E41" s="2" t="s">
-        <v>136</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -1647,16 +1898,16 @@
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="D42" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D42" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="E42" s="2" t="s">
-        <v>137</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -1664,16 +1915,16 @@
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="D43" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D43" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="E43" s="2" t="s">
-        <v>138</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -1681,16 +1932,16 @@
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="D44" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D44" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="E44" s="2" t="s">
-        <v>139</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -1698,16 +1949,16 @@
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="D45" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D45" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="E45" s="2" t="s">
-        <v>140</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -1715,28 +1966,22 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="D46" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D46" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="E46" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B51">
-        <f>44/8</f>
-        <v>5.5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E1:E46 D1:D1048576">
+  <conditionalFormatting sqref="B1:B46 E1:E46 D47:D1048576">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="SKIP">
-      <formula>NOT(ISERROR(SEARCH("SKIP",D1)))</formula>
+      <formula>NOT(ISERROR(SEARCH("SKIP",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1745,555 +1990,926 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E9F598D-D521-47DE-BEB7-8D23224132C8}">
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="163" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" style="12" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="C2" s="11" t="e">
-        <f>VLOOKUP(B2, 'P2'!B:E, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="C2" s="4" t="str">
+        <f>VLOOKUP($B2, 'P2'!$B$2:$E$46,2,FALSE)</f>
+        <v>G1401211076</v>
+      </c>
+      <c r="D2" s="4" t="str">
+        <f>VLOOKUP($B2, 'P2'!$B$2:$E$46,3,FALSE)</f>
+        <v>Aisyah Nuruzzahra Tirtasuwanda</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="C3" s="11" t="e">
-        <f>VLOOKUP(A3, 'P2'!A:E, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="C3" s="4" t="str">
+        <f>VLOOKUP($B3, 'P2'!$B$2:$E$46,2,FALSE)</f>
+        <v>G1401211065</v>
+      </c>
+      <c r="D3" s="4" t="str">
+        <f>VLOOKUP($B3, 'P2'!$B$2:$E$46,3,FALSE)</f>
+        <v>Vita Rizkyana Anggraeni</v>
+      </c>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" s="4" t="str">
+        <f>VLOOKUP($B4, 'P2'!$B$2:$E$46,2,FALSE)</f>
+        <v>G1401211005</v>
+      </c>
+      <c r="D4" s="4" t="str">
+        <f>VLOOKUP($B4, 'P2'!$B$2:$E$46,3,FALSE)</f>
+        <v>Cahyani Dyah Rofiana</v>
+      </c>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C5" s="4" t="str">
+        <f>VLOOKUP($B5, 'P2'!$B$2:$E$46,2,FALSE)</f>
+        <v>G1401211074</v>
+      </c>
+      <c r="D5" s="4" t="str">
+        <f>VLOOKUP($B5, 'P2'!$B$2:$E$46,3,FALSE)</f>
+        <v>Reyzha Siva Dewi</v>
+      </c>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" s="4" t="str">
+        <f>VLOOKUP($B6, 'P2'!$B$2:$E$46,2,FALSE)</f>
+        <v>G1401211028</v>
+      </c>
+      <c r="D6" s="4" t="str">
+        <f>VLOOKUP($B6, 'P2'!$B$2:$E$46,3,FALSE)</f>
+        <v>Nadila Putri Fauziyyah</v>
+      </c>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+    </row>
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="C4" s="11" t="e">
-        <f>VLOOKUP(A4, 'P2'!A:E, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="C5" s="11" t="e">
-        <f>VLOOKUP(A5, 'P2'!A:E, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C6" s="11" t="e">
-        <f>VLOOKUP(A6, 'P2'!A:E, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="B7" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C7" s="5" t="str">
+        <f>VLOOKUP($B7, 'P2'!$B$2:$E$46,2,FALSE)</f>
+        <v>G1401211035</v>
+      </c>
+      <c r="D7" s="5" t="str">
+        <f>VLOOKUP($B7, 'P2'!$B$2:$E$46,3,FALSE)</f>
+        <v>Dinda Khamila Nurfatimah</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C8" s="5" t="str">
+        <f>VLOOKUP($B8, 'P2'!$B$2:$E$46,2,FALSE)</f>
+        <v>G1401211046</v>
+      </c>
+      <c r="D8" s="5" t="str">
+        <f>VLOOKUP($B8, 'P2'!$B$2:$E$46,3,FALSE)</f>
+        <v>AZIZAH AMALIA AZRA</v>
+      </c>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C9" s="5" t="str">
+        <f>VLOOKUP($B9, 'P2'!$B$2:$E$46,2,FALSE)</f>
+        <v>G1401211107</v>
+      </c>
+      <c r="D9" s="5" t="str">
+        <f>VLOOKUP($B9, 'P2'!$B$2:$E$46,3,FALSE)</f>
+        <v>Yasmin Azimah Wafa</v>
+      </c>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C10" s="5" t="str">
+        <f>VLOOKUP($B10, 'P2'!$B$2:$E$46,2,FALSE)</f>
+        <v>G1401211008</v>
+      </c>
+      <c r="D10" s="5" t="str">
+        <f>VLOOKUP($B10, 'P2'!$B$2:$E$46,3,FALSE)</f>
+        <v>Nabil Naufal</v>
+      </c>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C11" s="5" t="str">
+        <f>VLOOKUP($B11, 'P2'!$B$2:$E$46,2,FALSE)</f>
+        <v>G1401211064</v>
+      </c>
+      <c r="D11" s="5" t="str">
+        <f>VLOOKUP($B11, 'P2'!$B$2:$E$46,3,FALSE)</f>
+        <v>JONATHAN MARJONO</v>
+      </c>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C12" s="5" t="str">
+        <f>VLOOKUP($B12, 'P2'!$B$2:$E$46,2,FALSE)</f>
+        <v>G1401211012</v>
+      </c>
+      <c r="D12" s="5" t="str">
+        <f>VLOOKUP($B12, 'P2'!$B$2:$E$46,3,FALSE)</f>
+        <v>SYIFA KHAIRUNNISA</v>
+      </c>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+    </row>
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="C7" s="11" t="e">
-        <f>VLOOKUP(A7, 'P2'!A:E, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="B13" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C13" s="6" t="str">
+        <f>VLOOKUP($B13, 'P2'!$B$2:$E$46,2,FALSE)</f>
+        <v>G1401211024</v>
+      </c>
+      <c r="D13" s="6" t="str">
+        <f>VLOOKUP($B13, 'P2'!$B$2:$E$46,3,FALSE)</f>
+        <v>DAVINA RACHMADYANTI</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="C8" s="11" t="e">
-        <f>VLOOKUP(A8, 'P2'!A:E, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="B14" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14" s="6" t="str">
+        <f>VLOOKUP($B14, 'P2'!$B$2:$E$46,2,FALSE)</f>
+        <v>G1401211001</v>
+      </c>
+      <c r="D14" s="6" t="str">
+        <f>VLOOKUP($B14, 'P2'!$B$2:$E$46,3,FALSE)</f>
+        <v>Karimatu Ain</v>
+      </c>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="C9" s="11" t="e">
-        <f>VLOOKUP(A9, 'P2'!A:E, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="B15" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C15" s="6" t="str">
+        <f>VLOOKUP($B15, 'P2'!$B$2:$E$46,2,FALSE)</f>
+        <v>G1401211066</v>
+      </c>
+      <c r="D15" s="6" t="str">
+        <f>VLOOKUP($B15, 'P2'!$B$2:$E$46,3,FALSE)</f>
+        <v>OKTAVIA GALIH PRATIWI</v>
+      </c>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="C10" s="11" t="e">
-        <f>VLOOKUP(A10, 'P2'!A:E, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="B16" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C16" s="6" t="str">
+        <f>VLOOKUP($B16, 'P2'!$B$2:$E$46,2,FALSE)</f>
+        <v>G1401211025</v>
+      </c>
+      <c r="D16" s="6" t="str">
+        <f>VLOOKUP($B16, 'P2'!$B$2:$E$46,3,FALSE)</f>
+        <v>FEDORA ILAHI</v>
+      </c>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="C11" s="11" t="e">
-        <f>VLOOKUP(A11, 'P2'!A:E, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="C12" s="11" t="e">
-        <f>VLOOKUP(A12, 'P2'!A:E, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+      <c r="B17" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C17" s="6" t="str">
+        <f>VLOOKUP($B17, 'P2'!$B$2:$E$46,2,FALSE)</f>
+        <v>G1401211072</v>
+      </c>
+      <c r="D17" s="6" t="str">
+        <f>VLOOKUP($B17, 'P2'!$B$2:$E$46,3,FALSE)</f>
+        <v>IGNACIA MANUELA BREGINA</v>
+      </c>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="C13" s="11" t="e">
-        <f>VLOOKUP(A13, 'P2'!A:E, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
+      <c r="B18" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C18" s="7" t="str">
+        <f>VLOOKUP($B18, 'P2'!$B$2:$E$46,2,FALSE)</f>
+        <v>G1401211070</v>
+      </c>
+      <c r="D18" s="7" t="str">
+        <f>VLOOKUP($B18, 'P2'!$B$2:$E$46,3,FALSE)</f>
+        <v>Kaylila Kireinahana</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="C14" s="11" t="e">
-        <f>VLOOKUP(A14, 'P2'!A:E, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
+      <c r="B19" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C19" s="7" t="str">
+        <f>VLOOKUP($B19, 'P2'!$B$2:$E$46,2,FALSE)</f>
+        <v>G1401211037</v>
+      </c>
+      <c r="D19" s="7" t="str">
+        <f>VLOOKUP($B19, 'P2'!$B$2:$E$46,3,FALSE)</f>
+        <v>Zulfa Hafizhoh</v>
+      </c>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="C15" s="11" t="e">
-        <f>VLOOKUP(A15, 'P2'!A:E, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
+      <c r="B20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C20" s="7" t="str">
+        <f>VLOOKUP($B20, 'P2'!$B$2:$E$46,2,FALSE)</f>
+        <v>G1401211031</v>
+      </c>
+      <c r="D20" s="7" t="str">
+        <f>VLOOKUP($B20, 'P2'!$B$2:$E$46,3,FALSE)</f>
+        <v>Muhammad Luthfi Al Gifari</v>
+      </c>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="C16" s="11" t="e">
-        <f>VLOOKUP(A16, 'P2'!A:E, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
+      <c r="B21" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C21" s="7" t="str">
+        <f>VLOOKUP($B21, 'P2'!$B$2:$E$46,2,FALSE)</f>
+        <v>G1401211027</v>
+      </c>
+      <c r="D21" s="7" t="str">
+        <f>VLOOKUP($B21, 'P2'!$B$2:$E$46,3,FALSE)</f>
+        <v>Adisti Suci Rahmah</v>
+      </c>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="C17" s="11" t="e">
-        <f>VLOOKUP(A17, 'P2'!A:E, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
+      <c r="B22" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C22" s="7" t="str">
+        <f>VLOOKUP($B22, 'P2'!$B$2:$E$46,2,FALSE)</f>
+        <v>G1401211088</v>
+      </c>
+      <c r="D22" s="7" t="str">
+        <f>VLOOKUP($B22, 'P2'!$B$2:$E$46,3,FALSE)</f>
+        <v>Amalia Safira Widyawati</v>
+      </c>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C23" s="7" t="str">
+        <f>VLOOKUP($B23, 'P2'!$B$2:$E$46,2,FALSE)</f>
+        <v>G1401211003</v>
+      </c>
+      <c r="D23" s="7" t="str">
+        <f>VLOOKUP($B23, 'P2'!$B$2:$E$46,3,FALSE)</f>
+        <v>LUTFI SYAHREZA LUBIS</v>
+      </c>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="B18" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="C18" s="11" t="e">
-        <f>VLOOKUP(A18, 'P2'!A:E, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
+      <c r="B24" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C24" s="8" t="str">
+        <f>VLOOKUP($B24, 'P2'!$B$2:$E$46,2,FALSE)</f>
+        <v>G1401211084</v>
+      </c>
+      <c r="D24" s="8" t="str">
+        <f>VLOOKUP($B24, 'P2'!$B$2:$E$46,3,FALSE)</f>
+        <v>ANIS SULISTIYOWATI</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="B19" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="C19" s="11" t="e">
-        <f>VLOOKUP(A19, 'P2'!A:E, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
+      <c r="B25" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C25" s="8" t="str">
+        <f>VLOOKUP($B25, 'P2'!$B$2:$E$46,2,FALSE)</f>
+        <v>G1401211010</v>
+      </c>
+      <c r="D25" s="8" t="str">
+        <f>VLOOKUP($B25, 'P2'!$B$2:$E$46,3,FALSE)</f>
+        <v>MUTIARA ANDHINI</v>
+      </c>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="B20" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="C20" s="11" t="e">
-        <f>VLOOKUP(A20, 'P2'!A:E, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
+      <c r="B26" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C26" s="8" t="str">
+        <f>VLOOKUP($B26, 'P2'!$B$2:$E$46,2,FALSE)</f>
+        <v>G1401211018</v>
+      </c>
+      <c r="D26" s="8" t="str">
+        <f>VLOOKUP($B26, 'P2'!$B$2:$E$46,3,FALSE)</f>
+        <v>Muhamad Farras Surya Dio Putra</v>
+      </c>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="B21" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="C21" s="11" t="e">
-        <f>VLOOKUP(A21, 'P2'!A:E, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
+      <c r="B27" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C27" s="8" t="str">
+        <f>VLOOKUP($B27, 'P2'!$B$2:$E$46,2,FALSE)</f>
+        <v>G1401211021</v>
+      </c>
+      <c r="D27" s="8" t="str">
+        <f>VLOOKUP($B27, 'P2'!$B$2:$E$46,3,FALSE)</f>
+        <v>RADHITYA HARMA</v>
+      </c>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="B22" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="C22" s="11" t="e">
-        <f>VLOOKUP(A22, 'P2'!A:E, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="C23" s="11" t="e">
-        <f>VLOOKUP(A23, 'P2'!A:E, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
+      <c r="B28" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C28" s="8" t="str">
+        <f>VLOOKUP($B28, 'P2'!$B$2:$E$46,2,FALSE)</f>
+        <v>G1401211029</v>
+      </c>
+      <c r="D28" s="8" t="str">
+        <f>VLOOKUP($B28, 'P2'!$B$2:$E$46,3,FALSE)</f>
+        <v>KHENI HIKMAH LESTARI</v>
+      </c>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="B24" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="C24" s="11" t="e">
-        <f>VLOOKUP(A24, 'P2'!A:E, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
+      <c r="B29" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C29" s="9" t="str">
+        <f>VLOOKUP($B29, 'P2'!$B$2:$E$46,2,FALSE)</f>
+        <v>G1401211044</v>
+      </c>
+      <c r="D29" s="9" t="str">
+        <f>VLOOKUP($B29, 'P2'!$B$2:$E$46,3,FALSE)</f>
+        <v>Rafli Radithya</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="B25" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="C25" s="11" t="e">
-        <f>VLOOKUP(A25, 'P2'!A:E, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
+      <c r="B30" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C30" s="9" t="str">
+        <f>VLOOKUP($B30, 'P2'!$B$2:$E$46,2,FALSE)</f>
+        <v>G1401211020</v>
+      </c>
+      <c r="D30" s="9" t="str">
+        <f>VLOOKUP($B30, 'P2'!$B$2:$E$46,3,FALSE)</f>
+        <v>UIWANG NUR THORIQ</v>
+      </c>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="B26" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="C26" s="11" t="e">
-        <f>VLOOKUP(A26, 'P2'!A:E, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
+      <c r="B31" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="C31" s="9" t="str">
+        <f>VLOOKUP($B31, 'P2'!$B$2:$E$46,2,FALSE)</f>
+        <v>G1401211063</v>
+      </c>
+      <c r="D31" s="9" t="str">
+        <f>VLOOKUP($B31, 'P2'!$B$2:$E$46,3,FALSE)</f>
+        <v>ALFIAH AYU HAPSARI</v>
+      </c>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="B27" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="C27" s="11" t="e">
-        <f>VLOOKUP(A27, 'P2'!A:E, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
+      <c r="B32" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C32" s="9" t="str">
+        <f>VLOOKUP($B32, 'P2'!$B$2:$E$46,2,FALSE)</f>
+        <v>G1401211041</v>
+      </c>
+      <c r="D32" s="9" t="str">
+        <f>VLOOKUP($B32, 'P2'!$B$2:$E$46,3,FALSE)</f>
+        <v>Andi Fatihatul Fuadiyah Akbar</v>
+      </c>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="B28" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="C28" s="11" t="e">
-        <f>VLOOKUP(A28, 'P2'!A:E, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="10" t="s">
+      <c r="B33" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C33" s="9" t="str">
+        <f>VLOOKUP($B33, 'P2'!$B$2:$E$46,2,FALSE)</f>
+        <v>G1401211017</v>
+      </c>
+      <c r="D33" s="9" t="str">
+        <f>VLOOKUP($B33, 'P2'!$B$2:$E$46,3,FALSE)</f>
+        <v>Dewi Kunthi Siswati Suryo</v>
+      </c>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C34" s="9" t="str">
+        <f>VLOOKUP($B34, 'P2'!$B$2:$E$46,2,FALSE)</f>
+        <v>G1401211014</v>
+      </c>
+      <c r="D34" s="9" t="str">
+        <f>VLOOKUP($B34, 'P2'!$B$2:$E$46,3,FALSE)</f>
+        <v>GLADYS ADYA ZAFIRA</v>
+      </c>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="B29" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="C29" s="11" t="e">
-        <f>VLOOKUP(A29, 'P2'!A:E, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="10" t="s">
+      <c r="B35" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C35" s="4" t="str">
+        <f>VLOOKUP($B35, 'P2'!$B$2:$E$46,2,FALSE)</f>
+        <v>G1401211105</v>
+      </c>
+      <c r="D35" s="4" t="str">
+        <f>VLOOKUP($B35, 'P2'!$B$2:$E$46,3,FALSE)</f>
+        <v>Angel Martha Pradina Pangaribuan</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="B30" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="C30" s="11" t="e">
-        <f>VLOOKUP(A30, 'P2'!A:E, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="10" t="s">
+      <c r="B36" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C36" s="4" t="str">
+        <f>VLOOKUP($B36, 'P2'!$B$2:$E$46,2,FALSE)</f>
+        <v>G1401211019</v>
+      </c>
+      <c r="D36" s="4" t="str">
+        <f>VLOOKUP($B36, 'P2'!$B$2:$E$46,3,FALSE)</f>
+        <v>Natasha Muti Hafiza</v>
+      </c>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="B31" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="C31" s="11" t="e">
-        <f>VLOOKUP(A31, 'P2'!A:E, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="10" t="s">
+      <c r="B37" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C37" s="4" t="str">
+        <f>VLOOKUP($B37, 'P2'!$B$2:$E$46,2,FALSE)</f>
+        <v>G1401211023</v>
+      </c>
+      <c r="D37" s="4" t="str">
+        <f>VLOOKUP($B37, 'P2'!$B$2:$E$46,3,FALSE)</f>
+        <v>ARFIAH KANIA SEKTIARUNI</v>
+      </c>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="B32" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="C32" s="11" t="e">
-        <f>VLOOKUP(A32, 'P2'!A:E, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="10" t="s">
+      <c r="B38" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C38" s="4" t="str">
+        <f>VLOOKUP($B38, 'P2'!$B$2:$E$46,2,FALSE)</f>
+        <v>G1401211056</v>
+      </c>
+      <c r="D38" s="4" t="str">
+        <f>VLOOKUP($B38, 'P2'!$B$2:$E$46,3,FALSE)</f>
+        <v>NASWA NABILA ZAHRANI</v>
+      </c>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="B33" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C33" s="11" t="e">
-        <f>VLOOKUP(A33, 'P2'!A:E, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="10" t="s">
+      <c r="B39" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C39" s="4" t="str">
+        <f>VLOOKUP($B39, 'P2'!$B$2:$E$46,2,FALSE)</f>
+        <v>G1401211073</v>
+      </c>
+      <c r="D39" s="4" t="str">
+        <f>VLOOKUP($B39, 'P2'!$B$2:$E$46,3,FALSE)</f>
+        <v>Kamilah Nurul Azizah</v>
+      </c>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="B34" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="C34" s="11" t="e">
-        <f>VLOOKUP(A34, 'P2'!A:E, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
+      <c r="B40" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C40" s="4" t="str">
+        <f>VLOOKUP($B40, 'P2'!$B$2:$E$46,2,FALSE)</f>
+        <v>G1401211006</v>
+      </c>
+      <c r="D40" s="4" t="str">
+        <f>VLOOKUP($B40, 'P2'!$B$2:$E$46,3,FALSE)</f>
+        <v>ANGGA FATHAN ROFIQY</v>
+      </c>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="B35" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="C35" s="11" t="e">
-        <f>VLOOKUP(A35, 'P2'!A:E, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
+      <c r="B41" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C41" s="10" t="str">
+        <f>VLOOKUP($B41, 'P2'!$B$2:$E$46,2,FALSE)</f>
+        <v>G1401211094</v>
+      </c>
+      <c r="D41" s="10" t="str">
+        <f>VLOOKUP($B41, 'P2'!$B$2:$E$46,3,FALSE)</f>
+        <v>Hanifa Rahmacindia Nasution</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="B36" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="C36" s="11" t="e">
-        <f>VLOOKUP(A36, 'P2'!A:E, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
+      <c r="B42" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C42" s="10" t="str">
+        <f>VLOOKUP($B42, 'P2'!$B$2:$E$46,2,FALSE)</f>
+        <v>G1401211026</v>
+      </c>
+      <c r="D42" s="10" t="str">
+        <f>VLOOKUP($B42, 'P2'!$B$2:$E$46,3,FALSE)</f>
+        <v>Salsabila Dwi Rahmi</v>
+      </c>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="B37" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="C37" s="11" t="e">
-        <f>VLOOKUP(A37, 'P2'!A:E, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
+      <c r="B43" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C43" s="10" t="str">
+        <f>VLOOKUP($B43, 'P2'!$B$2:$E$46,2,FALSE)</f>
+        <v>G1401211004</v>
+      </c>
+      <c r="D43" s="10" t="str">
+        <f>VLOOKUP($B43, 'P2'!$B$2:$E$46,3,FALSE)</f>
+        <v>Asfiah Adiba</v>
+      </c>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="13"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="B38" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="C38" s="11" t="e">
-        <f>VLOOKUP(A38, 'P2'!A:E, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
+      <c r="B44" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="C44" s="10" t="str">
+        <f>VLOOKUP($B44, 'P2'!$B$2:$E$46,2,FALSE)</f>
+        <v>G1401211057</v>
+      </c>
+      <c r="D44" s="10" t="str">
+        <f>VLOOKUP($B44, 'P2'!$B$2:$E$46,3,FALSE)</f>
+        <v>FARREL GILBRAN</v>
+      </c>
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="13"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="B39" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="C39" s="11" t="e">
-        <f>VLOOKUP(A39, 'P2'!A:E, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="C40" s="11" t="e">
-        <f>VLOOKUP(A40, 'P2'!A:E, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="C41" s="11" t="e">
-        <f>VLOOKUP(A41, 'P2'!A:E, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C42" s="11" t="e">
-        <f>VLOOKUP(A42, 'P2'!A:E, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="C43" s="11" t="e">
-        <f>VLOOKUP(A43, 'P2'!A:E, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C44" s="11" t="e">
-        <f>VLOOKUP(A44, 'P2'!A:E, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="C45" s="11" t="e">
-        <f>VLOOKUP(A45, 'P2'!A:E, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
+      <c r="C45" s="10" t="str">
+        <f>VLOOKUP($B45, 'P2'!$B$2:$E$46,2,FALSE)</f>
+        <v>G1401211016</v>
+      </c>
+      <c r="D45" s="10" t="str">
+        <f>VLOOKUP($B45, 'P2'!$B$2:$E$46,3,FALSE)</f>
+        <v>Aida Darajati</v>
+      </c>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="13"/>
     </row>
   </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="G29:G34"/>
+    <mergeCell ref="G35:G40"/>
+    <mergeCell ref="G41:G45"/>
+    <mergeCell ref="G2:G6"/>
+    <mergeCell ref="G7:G12"/>
+    <mergeCell ref="G13:G17"/>
+    <mergeCell ref="G18:G23"/>
+    <mergeCell ref="G24:G28"/>
+    <mergeCell ref="F41:F45"/>
+    <mergeCell ref="E41:E45"/>
+    <mergeCell ref="E2:E6"/>
+    <mergeCell ref="F2:F6"/>
+    <mergeCell ref="F7:F12"/>
+    <mergeCell ref="F13:F17"/>
+    <mergeCell ref="F18:F23"/>
+    <mergeCell ref="F24:F28"/>
+    <mergeCell ref="F29:F34"/>
+    <mergeCell ref="F35:F40"/>
+    <mergeCell ref="E7:E12"/>
+    <mergeCell ref="E13:E17"/>
+    <mergeCell ref="E18:E23"/>
+    <mergeCell ref="E24:E28"/>
+    <mergeCell ref="E29:E34"/>
+    <mergeCell ref="E35:E40"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>